--- a/StructureDefinition-omrs-related-person.xlsx
+++ b/StructureDefinition-omrs-related-person.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:14:00+00:00</t>
+    <t>2024-12-11T17:18:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
